--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H2">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I2">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J2">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N2">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O2">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P2">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q2">
-        <v>112.7802654857159</v>
+        <v>127.023482435148</v>
       </c>
       <c r="R2">
-        <v>112.7802654857159</v>
+        <v>1143.211341916332</v>
       </c>
       <c r="S2">
-        <v>0.08317019329154011</v>
+        <v>0.0823794248207837</v>
       </c>
       <c r="T2">
-        <v>0.08317019329154011</v>
+        <v>0.0936055070776526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H3">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I3">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J3">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N3">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O3">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P3">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q3">
-        <v>47.77384633035608</v>
+        <v>52.96897101131999</v>
       </c>
       <c r="R3">
-        <v>47.77384633035608</v>
+        <v>476.72073910188</v>
       </c>
       <c r="S3">
-        <v>0.03523098670200678</v>
+        <v>0.03435233613193628</v>
       </c>
       <c r="T3">
-        <v>0.03523098670200678</v>
+        <v>0.03903362823820784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H4">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I4">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J4">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N4">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O4">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P4">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q4">
-        <v>69.40727559560769</v>
+        <v>81.957602027574</v>
       </c>
       <c r="R4">
-        <v>69.40727559560769</v>
+        <v>737.618418248166</v>
       </c>
       <c r="S4">
-        <v>0.05118463325356346</v>
+        <v>0.05315253514773767</v>
       </c>
       <c r="T4">
-        <v>0.05118463325356346</v>
+        <v>0.06039578469733974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H5">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I5">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J5">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N5">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O5">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P5">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q5">
-        <v>72.13344939717268</v>
+        <v>76.16359576472399</v>
       </c>
       <c r="R5">
-        <v>72.13344939717268</v>
+        <v>685.472361882516</v>
       </c>
       <c r="S5">
-        <v>0.05319505946639419</v>
+        <v>0.04939490786346532</v>
       </c>
       <c r="T5">
-        <v>0.05319505946639419</v>
+        <v>0.05612609468532116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H6">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I6">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J6">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N6">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O6">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P6">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q6">
-        <v>78.14741270460043</v>
+        <v>80.65677518800199</v>
       </c>
       <c r="R6">
-        <v>78.14741270460043</v>
+        <v>483.940651128012</v>
       </c>
       <c r="S6">
-        <v>0.0576300773179025</v>
+        <v>0.05230890084657536</v>
       </c>
       <c r="T6">
-        <v>0.0576300773179025</v>
+        <v>0.03962479060817634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H7">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I7">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J7">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N7">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O7">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P7">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q7">
-        <v>64.99351300324388</v>
+        <v>74.57758899443155</v>
       </c>
       <c r="R7">
-        <v>64.99351300324388</v>
+        <v>671.198300949884</v>
       </c>
       <c r="S7">
-        <v>0.04792968890342481</v>
+        <v>0.048366323833223</v>
       </c>
       <c r="T7">
-        <v>0.04792968890342481</v>
+        <v>0.05495734253716925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H8">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I8">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J8">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N8">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O8">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P8">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q8">
-        <v>27.53132464544725</v>
+        <v>31.09895960817333</v>
       </c>
       <c r="R8">
-        <v>27.53132464544725</v>
+        <v>279.8906364735601</v>
       </c>
       <c r="S8">
-        <v>0.02030306971235142</v>
+        <v>0.02016882513321183</v>
       </c>
       <c r="T8">
-        <v>0.02030306971235142</v>
+        <v>0.02291728921222683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H9">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I9">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J9">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N9">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O9">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P9">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q9">
-        <v>39.99833348072941</v>
+        <v>48.118664689438</v>
       </c>
       <c r="R9">
-        <v>39.99833348072941</v>
+        <v>433.067982204942</v>
       </c>
       <c r="S9">
-        <v>0.02949690810359977</v>
+        <v>0.03120673315096582</v>
       </c>
       <c r="T9">
-        <v>0.02949690810359977</v>
+        <v>0.03545936484975518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H10">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I10">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J10">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N10">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O10">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P10">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q10">
-        <v>41.56938504421024</v>
+        <v>44.71690771176578</v>
       </c>
       <c r="R10">
-        <v>41.56938504421024</v>
+        <v>402.4521694058921</v>
       </c>
       <c r="S10">
-        <v>0.03065548546323744</v>
+        <v>0.02900056797718546</v>
       </c>
       <c r="T10">
-        <v>0.03065548546323744</v>
+        <v>0.03295255917299756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H11">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I11">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J11">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N11">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O11">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P11">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q11">
-        <v>45.0351385671246</v>
+        <v>47.35492772100734</v>
       </c>
       <c r="R11">
-        <v>45.0351385671246</v>
+        <v>284.129566326044</v>
       </c>
       <c r="S11">
-        <v>0.03321131727618996</v>
+        <v>0.03071142148915708</v>
       </c>
       <c r="T11">
-        <v>0.03321131727618996</v>
+        <v>0.02326437042438769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H12">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I12">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J12">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N12">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O12">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P12">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q12">
-        <v>58.14621895981663</v>
+        <v>65.57489376966578</v>
       </c>
       <c r="R12">
-        <v>58.14621895981663</v>
+        <v>590.1740439269919</v>
       </c>
       <c r="S12">
-        <v>0.04288012844474701</v>
+        <v>0.04252774312172609</v>
       </c>
       <c r="T12">
-        <v>0.04288012844474701</v>
+        <v>0.04832312156145317</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H13">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I13">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J13">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N13">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O13">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P13">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q13">
-        <v>24.63080324659589</v>
+        <v>27.34482302458667</v>
       </c>
       <c r="R13">
-        <v>24.63080324659589</v>
+        <v>246.10340722128</v>
       </c>
       <c r="S13">
-        <v>0.01816407026639543</v>
+        <v>0.01773412875640271</v>
       </c>
       <c r="T13">
-        <v>0.01816407026639543</v>
+        <v>0.0201508097250595</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H14">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I14">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J14">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N14">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O14">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P14">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q14">
-        <v>35.78436907206687</v>
+        <v>42.309980355944</v>
       </c>
       <c r="R14">
-        <v>35.78436907206687</v>
+        <v>380.789823203496</v>
       </c>
       <c r="S14">
-        <v>0.02638930560875972</v>
+        <v>0.02743958659518595</v>
       </c>
       <c r="T14">
-        <v>0.02638930560875972</v>
+        <v>0.03117885834759467</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H15">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I15">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J15">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N15">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O15">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P15">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q15">
-        <v>37.18990485534972</v>
+        <v>39.31886928023289</v>
       </c>
       <c r="R15">
-        <v>37.18990485534972</v>
+        <v>353.869823522096</v>
       </c>
       <c r="S15">
-        <v>0.02742582278905149</v>
+        <v>0.02549974047171063</v>
       </c>
       <c r="T15">
-        <v>0.02742582278905149</v>
+        <v>0.02897466378765991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H16">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I16">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J16">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N16">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O16">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P16">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q16">
-        <v>40.29052911602135</v>
+        <v>41.63843852617867</v>
       </c>
       <c r="R16">
-        <v>40.29052911602135</v>
+        <v>249.830631157072</v>
       </c>
       <c r="S16">
-        <v>0.02971238877622908</v>
+        <v>0.02700406688954878</v>
       </c>
       <c r="T16">
-        <v>0.02971238877622908</v>
+        <v>0.02045599274215322</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H17">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I17">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J17">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N17">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O17">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P17">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q17">
-        <v>101.6676127537076</v>
+        <v>116.9721916206946</v>
       </c>
       <c r="R17">
-        <v>101.6676127537076</v>
+        <v>1052.749724586252</v>
       </c>
       <c r="S17">
-        <v>0.0749751294501631</v>
+        <v>0.07586079109946497</v>
       </c>
       <c r="T17">
-        <v>0.0749751294501631</v>
+        <v>0.08619856030344325</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H18">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I18">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J18">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N18">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O18">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P18">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q18">
-        <v>43.06651423058535</v>
+        <v>48.77756859052</v>
       </c>
       <c r="R18">
-        <v>43.06651423058535</v>
+        <v>438.99811731468</v>
       </c>
       <c r="S18">
-        <v>0.03175954851253922</v>
+        <v>0.03163405669258749</v>
       </c>
       <c r="T18">
-        <v>0.03175954851253922</v>
+        <v>0.03594492100515119</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H19">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I19">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J19">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N19">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O19">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P19">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q19">
-        <v>62.56832245565015</v>
+        <v>75.472346887014</v>
       </c>
       <c r="R19">
-        <v>62.56832245565015</v>
+        <v>679.2511219831259</v>
       </c>
       <c r="S19">
-        <v>0.04614122382273449</v>
+        <v>0.04894660740860388</v>
       </c>
       <c r="T19">
-        <v>0.04614122382273449</v>
+        <v>0.05561670303210507</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H20">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I20">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J20">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N20">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O20">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P20">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q20">
-        <v>65.02587636513192</v>
+        <v>70.13681681149733</v>
       </c>
       <c r="R20">
-        <v>65.02587636513192</v>
+        <v>631.231351303476</v>
       </c>
       <c r="S20">
-        <v>0.04795355537556157</v>
+        <v>0.04548631888313803</v>
       </c>
       <c r="T20">
-        <v>0.04795355537556157</v>
+        <v>0.0516848709907202</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H21">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I21">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J21">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N21">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O21">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P21">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q21">
-        <v>70.44726183555369</v>
+        <v>74.27445368312199</v>
       </c>
       <c r="R21">
-        <v>70.44726183555369</v>
+        <v>445.646722098732</v>
       </c>
       <c r="S21">
-        <v>0.0519515746703471</v>
+        <v>0.04816972937596349</v>
       </c>
       <c r="T21">
-        <v>0.0519515746703471</v>
+        <v>0.03648930505677097</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H22">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I22">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J22">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N22">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O22">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P22">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q22">
-        <v>64.60875721142791</v>
+        <v>83.55819771196833</v>
       </c>
       <c r="R22">
-        <v>64.60875721142791</v>
+        <v>501.34918627181</v>
       </c>
       <c r="S22">
-        <v>0.04764594942615406</v>
+        <v>0.05419058062817356</v>
       </c>
       <c r="T22">
-        <v>0.04764594942615406</v>
+        <v>0.04105019175656138</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H23">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I23">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J23">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N23">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O23">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P23">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q23">
-        <v>27.36834166261982</v>
+        <v>34.84388608715</v>
       </c>
       <c r="R23">
-        <v>27.36834166261982</v>
+        <v>209.0633165229</v>
       </c>
       <c r="S23">
-        <v>0.02018287735310657</v>
+        <v>0.02259754841665454</v>
       </c>
       <c r="T23">
-        <v>0.02018287735310657</v>
+        <v>0.01711798775689025</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H24">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I24">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J24">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N24">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O24">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P24">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q24">
-        <v>39.76154691913934</v>
+        <v>53.9130984518175</v>
       </c>
       <c r="R24">
-        <v>39.76154691913934</v>
+        <v>323.478590710905</v>
       </c>
       <c r="S24">
-        <v>0.02932228904226426</v>
+        <v>0.03496463768448906</v>
       </c>
       <c r="T24">
-        <v>0.02932228904226426</v>
+        <v>0.02648624659505413</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H25">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I25">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J25">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N25">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O25">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P25">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q25">
-        <v>41.3232979976893</v>
+        <v>50.10170301867166</v>
       </c>
       <c r="R25">
-        <v>41.3232979976893</v>
+        <v>300.61021811203</v>
       </c>
       <c r="S25">
-        <v>0.03047400772741599</v>
+        <v>0.0324928068266993</v>
       </c>
       <c r="T25">
-        <v>0.03047400772741599</v>
+        <v>0.02461379700093958</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H26">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I26">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J26">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N26">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O26">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P26">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q26">
-        <v>44.76853456930606</v>
+        <v>53.0573925290525</v>
       </c>
       <c r="R26">
-        <v>44.76853456930606</v>
+        <v>212.22957011621</v>
       </c>
       <c r="S26">
-        <v>0.03301470924432048</v>
+        <v>0.03440968075541016</v>
       </c>
       <c r="T26">
-        <v>0.03301470924432048</v>
+        <v>0.01737723883520917</v>
       </c>
     </row>
   </sheetData>
